--- a/data/hotels_by_city/Houston/Houston_shard_110.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_110.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55726-d281442-Reviews-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Deer-Park.h969919.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,500 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r480239430-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>281442</t>
+  </si>
+  <si>
+    <t>480239430</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Very Nice! Free Happy Hour, Spacious Rooms</t>
+  </si>
+  <si>
+    <t>The hotel is in very good condition. Rooms are spacious, clean and comfortable. Everything worked, no issues. Rooms have a spacious desk, wet bar with microwave and fridge.Carpets, linens, furniture are in good shape. AC worked well.Breakfast was standard.Afternoon, there is complimentary wine and beer.Overall I had a good stay and was pleased with the property</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r476827266-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>476827266</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Family Visit</t>
+  </si>
+  <si>
+    <t>Great Staff very friendly, Rooms are dated but very clean. Wheelchair accessible rooms are large. Free Breakfast was OK. Easy to get to, free parking. small game room has a pool table, lounge was nice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r468334328-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>468334328</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Moderate Price - Luxurious Hotel</t>
+  </si>
+  <si>
+    <t>Okay, so, let's be honest --- you're not looking for a hotel that Richard Geer and Julia Roberts would be found. But you at least want to be treated nice, have nice ammenities and be close to things.  That's what we found here. We came here from another hotel near NASA that was a joke. The front desk operator, Kristi, she was great. Relaxed. It took a while for them to ready our room, but we expected that. She gave us ideas of things to do - but when you have teens (two boys) they did not want to go anywhere or do anything. Pool, Hot tub, fitness center, a few lounges (games, pool table) chess tables. Even waiting was in style. I am very picky. This room was clean top to bottom. The AC works REALLY well... and the WiFi? Well... I'm typing this, using it. It's very quality.This is above what I expected for the price. I'm impressed. We found our new favorite hotel for coming down to NASA, GALVESTON and surrounding Kemah.If you want to be treated right for your dollar, this is the place to be.Moderately priced - lavishly decorated.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Okay, so, let's be honest --- you're not looking for a hotel that Richard Geer and Julia Roberts would be found. But you at least want to be treated nice, have nice ammenities and be close to things.  That's what we found here. We came here from another hotel near NASA that was a joke. The front desk operator, Kristi, she was great. Relaxed. It took a while for them to ready our room, but we expected that. She gave us ideas of things to do - but when you have teens (two boys) they did not want to go anywhere or do anything. Pool, Hot tub, fitness center, a few lounges (games, pool table) chess tables. Even waiting was in style. I am very picky. This room was clean top to bottom. The AC works REALLY well... and the WiFi? Well... I'm typing this, using it. It's very quality.This is above what I expected for the price. I'm impressed. We found our new favorite hotel for coming down to NASA, GALVESTON and surrounding Kemah.If you want to be treated right for your dollar, this is the place to be.Moderately priced - lavishly decorated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r422097307-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>422097307</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay!</t>
+  </si>
+  <si>
+    <t>I stayed her during a work trip and was extremely pleased.  The hotel has a wine and beer happy hour, there's a large flat screen that we were able to sit around and watch the Texans game.  There is a great outside pool and they had a pool table on the second floor.  The hotel was very clean and well kept..</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r389429058-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>389429058</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Great Family Trip</t>
+  </si>
+  <si>
+    <t>Our group of 10 checked in around 7:30 pm. Very pleased to find Popeye's Chicken next door. That made our dinner decision very easy, and the desk clerk let us use the breakfast area to sit and eat. Also within walking distance was a McDonald's and a few other fast food places. Our 3 rooms were clean, in good repair, a/c worked great, and plenty of large bath towels. Breakfast is served from 6-9 and included waffles, scrambled eggs, bacon, sausage patties, bread for toast, bagels, muffins, Danish, cereal, oatmeal, fresh fruit, yogurt, apple and orange juice, coffee, tea, milk, skim milk, cream cheese, butter, salsa, syrup and peanut butter. The pool was good, clean area, attendant brought us extra towels. This hotel is not in the middle of Houston, it is a nice distance from attractions, easy to get around and we found great food and had access to it pretty easily. We enjoyed dinner on our second night at the Brisket House, very good food. Our group ranged in age from 2-57, was a good experience. Final point: the free wifi didn't work on my laptop, couldn't load pages. There is a computer room on the first floor and I didn't use it so I can't say if it was good there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Our group of 10 checked in around 7:30 pm. Very pleased to find Popeye's Chicken next door. That made our dinner decision very easy, and the desk clerk let us use the breakfast area to sit and eat. Also within walking distance was a McDonald's and a few other fast food places. Our 3 rooms were clean, in good repair, a/c worked great, and plenty of large bath towels. Breakfast is served from 6-9 and included waffles, scrambled eggs, bacon, sausage patties, bread for toast, bagels, muffins, Danish, cereal, oatmeal, fresh fruit, yogurt, apple and orange juice, coffee, tea, milk, skim milk, cream cheese, butter, salsa, syrup and peanut butter. The pool was good, clean area, attendant brought us extra towels. This hotel is not in the middle of Houston, it is a nice distance from attractions, easy to get around and we found great food and had access to it pretty easily. We enjoyed dinner on our second night at the Brisket House, very good food. Our group ranged in age from 2-57, was a good experience. Final point: the free wifi didn't work on my laptop, couldn't load pages. There is a computer room on the first floor and I didn't use it so I can't say if it was good there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r385368750-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>385368750</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Easy Book and great facility</t>
+  </si>
+  <si>
+    <t>Booked through Chase Travel Rewards, easy book and was an easy check in process! They also have a happy hour from 5-7 Monday - Thursday with free drinks!!! Great staff that was very accommodating, needed more shampoo and conditioner and they got it for me immediately! Smell in room was a little moist but not horrible.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r285594204-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>285594204</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Quality, Service, Value, and Staff</t>
+  </si>
+  <si>
+    <t>My experience started with the kind desk gal who answered my first call.  I had spent the morning trying to find an affordable hotel for the family to stay after my husband's mother passed away.  I spent some unproductive time online and tried to call some places directly.  I was pretty discouraged when my sister in law found this place.  What a difference it was!  Extremely affordable, clean, and it was a great space for our family to be together during a difficult time.  The room was spacious and the hotel was immaculate.  Staff was consistently kind, friendly, thoughtful, and pleasant.  I wish I had names, but they were all wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My experience started with the kind desk gal who answered my first call.  I had spent the morning trying to find an affordable hotel for the family to stay after my husband's mother passed away.  I spent some unproductive time online and tried to call some places directly.  I was pretty discouraged when my sister in law found this place.  What a difference it was!  Extremely affordable, clean, and it was a great space for our family to be together during a difficult time.  The room was spacious and the hotel was immaculate.  Staff was consistently kind, friendly, thoughtful, and pleasant.  I wish I had names, but they were all wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r267934514-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>267934514</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>What a great affordable hotel</t>
+  </si>
+  <si>
+    <t>with a surprisingly fancy hotel flair.  We frequently stay at the Comfort properties and are always pleased.  However, this property took it up several notches with amenities like chess tables, a dispenser with orange slices spicing up the water and a pool table in its own room.   The pool and its surroundings were clean and nicely done.  Breakfast was very good and the staff was helpful, hospitable and very friendly.  If we travel to this area again, you can count on us staying at this hotel again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r258983239-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>258983239</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I am writing this review on my last night of a 4 night stay and I can't find anything bad to say. The staff has been awesome. Very helpful and friendly. The room is very nice, squeaky clean and well appointed. The free happy hour is over the top. Breakfast is adequate, different options from day to day would be a nice touch. If I ever find myself in this part of Texas again, (not bloody likely!) I would absolutely stay here.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r234036886-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>234036886</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Stayed here a few weeks ago: room was spotless, front desk personnel were delightful, breakfast was adequate, not great. Only real drawback was the business center lacking the ability to print and scan. Will stay here again......MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>A J, Guest Relations Manager at Comfort Suites Deer Park, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here a few weeks ago: room was spotless, front desk personnel were delightful, breakfast was adequate, not great. Only real drawback was the business center lacking the ability to print and scan. Will stay here again......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r204440441-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>204440441</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Surprised At The High Quality</t>
+  </si>
+  <si>
+    <t>I was in Houston for the 2013 Offshore Technology Conference and to visit clients at the nearby Deer Park refineries. I had no idea what to expect from this hotel, but figured that any hotel that caters to traveling business people and temporary refinery workers would be adequate at best. I was VERY surprised at the quality and service at this hotel. First, the desk staff was extremely courteous and helpful. A few minutes after I had checked out my room, the phone rang and the desk clerk asked if everything was satisfactory and if I needed anything!! The next day I received a personal letter in my room thanking me for selecting this hotel, along with bottled water and an invitation to a free beer/wine "happy hour" Monday-Thursday 5-7pm. Considering that the city of Deer Park is "dry" (no alcohol is served at restaurants in the city), this was a comfortable and appreciated item.  The room was CLEAN, comfortable and big. Everything worked and I had no problems. It was everything a good hotel room should be. The price was high, but it WAS during the OTC week when all hotels are basically booked in the city.  The lobby is big and welcoming. They have a nice little business center and conference room. Other amenities include free wifi, smoke-free building, a "snack-wall" with items for purchase, a well stocked fitness room, outdoor pool &amp; Jacuzzi with a handicapped lift,...I was in Houston for the 2013 Offshore Technology Conference and to visit clients at the nearby Deer Park refineries. I had no idea what to expect from this hotel, but figured that any hotel that caters to traveling business people and temporary refinery workers would be adequate at best. I was VERY surprised at the quality and service at this hotel. First, the desk staff was extremely courteous and helpful. A few minutes after I had checked out my room, the phone rang and the desk clerk asked if everything was satisfactory and if I needed anything!! The next day I received a personal letter in my room thanking me for selecting this hotel, along with bottled water and an invitation to a free beer/wine "happy hour" Monday-Thursday 5-7pm. Considering that the city of Deer Park is "dry" (no alcohol is served at restaurants in the city), this was a comfortable and appreciated item.  The room was CLEAN, comfortable and big. Everything worked and I had no problems. It was everything a good hotel room should be. The price was high, but it WAS during the OTC week when all hotels are basically booked in the city.  The lobby is big and welcoming. They have a nice little business center and conference room. Other amenities include free wifi, smoke-free building, a "snack-wall" with items for purchase, a well stocked fitness room, outdoor pool &amp; Jacuzzi with a handicapped lift, a pool table and washing machines. Breakfast is included and is scrambled eggs, bacon, sausage, fruit, cereal, pastries and juices/coffee. It was a nice way to begin the morning. The ultimate question for quality is "Would I come back here again on business?" Heck yeah!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>A J, Manager at Comfort Suites Deer Park, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>I was in Houston for the 2013 Offshore Technology Conference and to visit clients at the nearby Deer Park refineries. I had no idea what to expect from this hotel, but figured that any hotel that caters to traveling business people and temporary refinery workers would be adequate at best. I was VERY surprised at the quality and service at this hotel. First, the desk staff was extremely courteous and helpful. A few minutes after I had checked out my room, the phone rang and the desk clerk asked if everything was satisfactory and if I needed anything!! The next day I received a personal letter in my room thanking me for selecting this hotel, along with bottled water and an invitation to a free beer/wine "happy hour" Monday-Thursday 5-7pm. Considering that the city of Deer Park is "dry" (no alcohol is served at restaurants in the city), this was a comfortable and appreciated item.  The room was CLEAN, comfortable and big. Everything worked and I had no problems. It was everything a good hotel room should be. The price was high, but it WAS during the OTC week when all hotels are basically booked in the city.  The lobby is big and welcoming. They have a nice little business center and conference room. Other amenities include free wifi, smoke-free building, a "snack-wall" with items for purchase, a well stocked fitness room, outdoor pool &amp; Jacuzzi with a handicapped lift,...I was in Houston for the 2013 Offshore Technology Conference and to visit clients at the nearby Deer Park refineries. I had no idea what to expect from this hotel, but figured that any hotel that caters to traveling business people and temporary refinery workers would be adequate at best. I was VERY surprised at the quality and service at this hotel. First, the desk staff was extremely courteous and helpful. A few minutes after I had checked out my room, the phone rang and the desk clerk asked if everything was satisfactory and if I needed anything!! The next day I received a personal letter in my room thanking me for selecting this hotel, along with bottled water and an invitation to a free beer/wine "happy hour" Monday-Thursday 5-7pm. Considering that the city of Deer Park is "dry" (no alcohol is served at restaurants in the city), this was a comfortable and appreciated item.  The room was CLEAN, comfortable and big. Everything worked and I had no problems. It was everything a good hotel room should be. The price was high, but it WAS during the OTC week when all hotels are basically booked in the city.  The lobby is big and welcoming. They have a nice little business center and conference room. Other amenities include free wifi, smoke-free building, a "snack-wall" with items for purchase, a well stocked fitness room, outdoor pool &amp; Jacuzzi with a handicapped lift, a pool table and washing machines. Breakfast is included and is scrambled eggs, bacon, sausage, fruit, cereal, pastries and juices/coffee. It was a nice way to begin the morning. The ultimate question for quality is "Would I come back here again on business?" Heck yeah!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r203105650-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>203105650</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights. The hotel was very well kept. Rooms were clean, beds were very comfortable, bedding smelled fresh and clean. Breakfast was adequate. Staff was friendly and helpful. Lots of places to eat nearby.This hotel was a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>A J, Manager at Comfort Suites Deer Park, responded to this reviewResponded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights. The hotel was very well kept. Rooms were clean, beds were very comfortable, bedding smelled fresh and clean. Breakfast was adequate. Staff was friendly and helpful. Lots of places to eat nearby.This hotel was a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r169019584-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>169019584</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Good clean comfortable hotel at a great value</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel having come to town for a funeral.  It was located just south of Highway 225 and just around the corner from the funeral home, which made it very convenient.  The front desk clerk was very helpful and even gave me a bag of pretzels and a bottle of water, saying that it was a gift for being a Choice Privileges member.  They were having a weekend special so our rate was around $90 + tax.We didn't arrive in time to partake of the beer and wine reception, but don't drink so that was fine.  But it is a nice perk that I've seen at other hotels, also.We did get there in time to enjoy the outdoor pool and hot tub, which I didn't even realize was in the shape of Texas until I read it on the Comfort website later.  They were both warm and inviting and my daughter and I loved splashing around for an hour before bedtime.The room was comfortable and clean and breakfast was usual hotel fare and was adequate.Overall, I would stay here again and would recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel having come to town for a funeral.  It was located just south of Highway 225 and just around the corner from the funeral home, which made it very convenient.  The front desk clerk was very helpful and even gave me a bag of pretzels and a bottle of water, saying that it was a gift for being a Choice Privileges member.  They were having a weekend special so our rate was around $90 + tax.We didn't arrive in time to partake of the beer and wine reception, but don't drink so that was fine.  But it is a nice perk that I've seen at other hotels, also.We did get there in time to enjoy the outdoor pool and hot tub, which I didn't even realize was in the shape of Texas until I read it on the Comfort website later.  They were both warm and inviting and my daughter and I loved splashing around for an hour before bedtime.The room was comfortable and clean and breakfast was usual hotel fare and was adequate.Overall, I would stay here again and would recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r160842903-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>160842903</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for five nights with my husband on a business trip. We had a great experience with the staff as they were all extremely nice and courteous. They really went above and beyond to make our stay great. The cleaning staff was great at their job. The room was very nice and comfortable and I didn't feel like I was staying at a hotel. The bathroom was really clean. And the room even had a microwave and fridge which was very convenient for us as we stayed for 5 nights. The flat TV wasn't great though. The breakfast was like any other regular hotel breakfastbut it was enough to get us started for the day.Overall I do recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for five nights with my husband on a business trip. We had a great experience with the staff as they were all extremely nice and courteous. They really went above and beyond to make our stay great. The cleaning staff was great at their job. The room was very nice and comfortable and I didn't feel like I was staying at a hotel. The bathroom was really clean. And the room even had a microwave and fridge which was very convenient for us as we stayed for 5 nights. The flat TV wasn't great though. The breakfast was like any other regular hotel breakfastbut it was enough to get us started for the day.Overall I do recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r159811139-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>159811139</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Comfortable stay, good value</t>
+  </si>
+  <si>
+    <t>I was surprised to find that it had been nine years since I had last stayed here.  Time for an updated review!The Comfort Suites isn't a full-service hotel, but achieves everything it strives to be.  I'm going to rate it a 5 based on that, recognizing that it isn't trying to be the Ritz.The property is nicely cared for, and clean and inviting, and all the staff we dealt with were helpful and very friendly.  The property is pretty quiet, though we found that the A/C units' fans are on the loud side:  on the one hand, you had to turn up the TV to hear it, but on the other hand it kept up a 'white noise' that may have helped cover up noise from neighbors and the hall.  At any rate, we did not have problems with external noise.  Our room was clean and comfortable and the beds came with an abundance of pillows.  I felt we got a good rate.The included breakfast in the morning has a pretty wide selection, with something for most everyone including some hot foods and two flavors of make-your-own waffles that are in the shape of Texas.  The management just started a Happy Hour gathering with free wine and beer in the evenings.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I was surprised to find that it had been nine years since I had last stayed here.  Time for an updated review!The Comfort Suites isn't a full-service hotel, but achieves everything it strives to be.  I'm going to rate it a 5 based on that, recognizing that it isn't trying to be the Ritz.The property is nicely cared for, and clean and inviting, and all the staff we dealt with were helpful and very friendly.  The property is pretty quiet, though we found that the A/C units' fans are on the loud side:  on the one hand, you had to turn up the TV to hear it, but on the other hand it kept up a 'white noise' that may have helped cover up noise from neighbors and the hall.  At any rate, we did not have problems with external noise.  Our room was clean and comfortable and the beds came with an abundance of pillows.  I felt we got a good rate.The included breakfast in the morning has a pretty wide selection, with something for most everyone including some hot foods and two flavors of make-your-own waffles that are in the shape of Texas.  The management just started a Happy Hour gathering with free wine and beer in the evenings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r120547916-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>120547916</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I normally avoid Comfort Inn's but here I was.  The check-in was uneventful, The building was in decent shape, back door hard to get in, stairs creaky, but the room was clean, quiet, comfortable.  Everything worked as it should.  Not fancy but functional.  I had an end room so perhaps that helped. I would stay there again if in the area.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r118838052-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>118838052</t>
+  </si>
+  <si>
+    <t>10/02/2011</t>
+  </si>
+  <si>
+    <t>Couldn't have asked for more!</t>
+  </si>
+  <si>
+    <t>Our family booked this hotel because of it's #1 rating with TripAdvisor and we were not disappointed. The staff were extremely friendly and accommodating considering we were there for my father's funeral and many of us had traveled long distances to attend. Even though we did not get the original rooms we requested (adjoining on the first level) the alternative worked out fine. The rooms were clean and spacious and the beds very comfortable. They allowed us to enjoy a large family gathering by the pool after the service which I thought was extremely understanding and generous. My only suggestion for the owners is to upgrade their wi-fi connection as we did find this slow. Overall it was a wonderful stay at a very difficult time.If you need a nice spa experience (and who doesn't after 26 hours of flying!) I can highly recommend the Beyond Beaute just a few blocks on Center Street. They were extremely flexible in handling our group booking and took excellent care of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Our family booked this hotel because of it's #1 rating with TripAdvisor and we were not disappointed. The staff were extremely friendly and accommodating considering we were there for my father's funeral and many of us had traveled long distances to attend. Even though we did not get the original rooms we requested (adjoining on the first level) the alternative worked out fine. The rooms were clean and spacious and the beds very comfortable. They allowed us to enjoy a large family gathering by the pool after the service which I thought was extremely understanding and generous. My only suggestion for the owners is to upgrade their wi-fi connection as we did find this slow. Overall it was a wonderful stay at a very difficult time.If you need a nice spa experience (and who doesn't after 26 hours of flying!) I can highly recommend the Beyond Beaute just a few blocks on Center Street. They were extremely flexible in handling our group booking and took excellent care of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r113310034-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>113310034</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Great hotel and service</t>
+  </si>
+  <si>
+    <t>This hotel is in a convenient central location. The rooms were clean and in good condition. Everyone who worked there was very friendly and helpful. I was there on  a business trip but I would definitely go back there on vacation with my family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r10355039-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>10355039</t>
+  </si>
+  <si>
+    <t>10/26/2007</t>
+  </si>
+  <si>
+    <t>You May End Up at Best Western. This Hotel Overbooks.</t>
+  </si>
+  <si>
+    <t>Warning! This hotel overbooks. Even though you have aguaranteed reservation, you will be told ther are no rooms left.You will be sent to the Best Western next door which is owned by the same person as Comfort Suites. It happened to us. It was not pleasant.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r8827716-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>8827716</t>
+  </si>
+  <si>
+    <t>09/19/2007</t>
+  </si>
+  <si>
+    <t>This Hotel Needs Improvement.</t>
+  </si>
+  <si>
+    <t>There are problems at this hotel. The carpet in the hallways was discolored and dirty. The sofabed and chair in the room was stained. I was there during a hot Texas summer month and the air conditioner did not cool adequately. The hallways were hot. Not all the TV channels worked. There is a business center where email could be viewed but not sent. Despite the fact that most guests appeared to be businessmen, Net Nanny on the computers blocked access to sites such as cnn.com. Breakfast was just ok., with few healthy food choices like yogurt or non-sugar coated cereal. The guest room was spacious and the staff seemed friendly but this did not make up for the problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>There are problems at this hotel. The carpet in the hallways was discolored and dirty. The sofabed and chair in the room was stained. I was there during a hot Texas summer month and the air conditioner did not cool adequately. The hallways were hot. Not all the TV channels worked. There is a business center where email could be viewed but not sent. Despite the fact that most guests appeared to be businessmen, Net Nanny on the computers blocked access to sites such as cnn.com. Breakfast was just ok., with few healthy food choices like yogurt or non-sugar coated cereal. The guest room was spacious and the staff seemed friendly but this did not make up for the problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r6557036-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>6557036</t>
+  </si>
+  <si>
+    <t>01/04/2007</t>
+  </si>
+  <si>
+    <t>nice accomodation</t>
+  </si>
+  <si>
+    <t>The hotel was very nice.  The rooms were very spacious and even had extra tall ceilings.  The hotel was quiet and comfortable.  The free hot breakfast was very good.  Our only complaint was the hot tub.  It is shaped like Texas which it really cute.  However, I have NEVER EVER been to a hotel where you had to ask the desk clerk to turn on the heater in the hot tub.  She said it would only take 15 min to heat up.  Well an hour later it was lukewarm and later in the evening it didn't get any better.  The jets were powerful, but who wants a lukewarm tub?  We were very let down.  Coming from a northern climate we felt the outside temperature was quite nice and were really looking forward to relaxing in the hot tub under the stars.   We had a short stay though since the water was only lukewarm.  The pool was frigid.  If they are going to keep the pool open in the winter shouldn't it be heated?MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>The hotel was very nice.  The rooms were very spacious and even had extra tall ceilings.  The hotel was quiet and comfortable.  The free hot breakfast was very good.  Our only complaint was the hot tub.  It is shaped like Texas which it really cute.  However, I have NEVER EVER been to a hotel where you had to ask the desk clerk to turn on the heater in the hot tub.  She said it would only take 15 min to heat up.  Well an hour later it was lukewarm and later in the evening it didn't get any better.  The jets were powerful, but who wants a lukewarm tub?  We were very let down.  Coming from a northern climate we felt the outside temperature was quite nice and were really looking forward to relaxing in the hot tub under the stars.   We had a short stay though since the water was only lukewarm.  The pool was frigid.  If they are going to keep the pool open in the winter shouldn't it be heated?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r3497237-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>3497237</t>
+  </si>
+  <si>
+    <t>05/23/2005</t>
+  </si>
+  <si>
+    <t>Comfort Inn a great choice</t>
+  </si>
+  <si>
+    <t>Had a 3 night stay in April, 2005.  Good value for the price.  Clean room, helpful front desk staff, great complimentary breakfast.  Would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r3173746-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>3173746</t>
+  </si>
+  <si>
+    <t>02/08/2005</t>
+  </si>
+  <si>
+    <t>Loved this hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service, the room, the people were at the very best expectations. I was impressed with the high quality service. I recommend this hotel to everyone. Thank you. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r1845063-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>1845063</t>
+  </si>
+  <si>
+    <t>04/27/2004</t>
+  </si>
+  <si>
+    <t>Attentive Staff, Quiet Property</t>
+  </si>
+  <si>
+    <t>We recently had two very satisfying stays here.  The staff were attentive to detail and remembered (or looked up) our requests from our previous stay.
+The property is new and clean, and I don't think we heard another guest walking about or talking while we were in our room.  There is a nice little pool area, and it features a small hot tub (in the shape of Texas!) that wasn't too hot for the kids to get into.  The fans on the room's air conditioner unit were a little on the loud side -- you had to turn up the TV to hear it, but it was white noise that didn't bother our sleep.
+The free breakfast was decent.  The kids loved the make-your-own waffles (in the shape of Texas!), but the scrambled eggs were cold by the time we got down there at 7:00.  Plenty of bagels and bread for toasting, along with donuts, and three varieties of cold cereal (Honeycomb, Co-Co Puffs, and something "healthy" like Just Right), along with coffee (curiously not labelled caf or decaf), juice, milk, and bananas.
+This hotel could use a vending machine (or little "store") selling snacks.  There are Coke machines, but if you want something to eat outside of breakfast hours, you'll have to leave the hotel (there's a Popeye's Chicken next door).
+This property's suites are all one-room.  Rooms 216 and 218 adjoin, if you need more than one room....We recently had two very satisfying stays here.  The staff were attentive to detail and remembered (or looked up) our requests from our previous stay.The property is new and clean, and I don't think we heard another guest walking about or talking while we were in our room.  There is a nice little pool area, and it features a small hot tub (in the shape of Texas!) that wasn't too hot for the kids to get into.  The fans on the room's air conditioner unit were a little on the loud side -- you had to turn up the TV to hear it, but it was white noise that didn't bother our sleep.The free breakfast was decent.  The kids loved the make-your-own waffles (in the shape of Texas!), but the scrambled eggs were cold by the time we got down there at 7:00.  Plenty of bagels and bread for toasting, along with donuts, and three varieties of cold cereal (Honeycomb, Co-Co Puffs, and something "healthy" like Just Right), along with coffee (curiously not labelled caf or decaf), juice, milk, and bananas.This hotel could use a vending machine (or little "store") selling snacks.  There are Coke machines, but if you want something to eat outside of breakfast hours, you'll have to leave the hotel (there's a Popeye's Chicken next door).This property's suites are all one-room.  Rooms 216 and 218 adjoin, if you need more than one room.We would stay here again.  Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently had two very satisfying stays here.  The staff were attentive to detail and remembered (or looked up) our requests from our previous stay.
+The property is new and clean, and I don't think we heard another guest walking about or talking while we were in our room.  There is a nice little pool area, and it features a small hot tub (in the shape of Texas!) that wasn't too hot for the kids to get into.  The fans on the room's air conditioner unit were a little on the loud side -- you had to turn up the TV to hear it, but it was white noise that didn't bother our sleep.
+The free breakfast was decent.  The kids loved the make-your-own waffles (in the shape of Texas!), but the scrambled eggs were cold by the time we got down there at 7:00.  Plenty of bagels and bread for toasting, along with donuts, and three varieties of cold cereal (Honeycomb, Co-Co Puffs, and something "healthy" like Just Right), along with coffee (curiously not labelled caf or decaf), juice, milk, and bananas.
+This hotel could use a vending machine (or little "store") selling snacks.  There are Coke machines, but if you want something to eat outside of breakfast hours, you'll have to leave the hotel (there's a Popeye's Chicken next door).
+This property's suites are all one-room.  Rooms 216 and 218 adjoin, if you need more than one room....We recently had two very satisfying stays here.  The staff were attentive to detail and remembered (or looked up) our requests from our previous stay.The property is new and clean, and I don't think we heard another guest walking about or talking while we were in our room.  There is a nice little pool area, and it features a small hot tub (in the shape of Texas!) that wasn't too hot for the kids to get into.  The fans on the room's air conditioner unit were a little on the loud side -- you had to turn up the TV to hear it, but it was white noise that didn't bother our sleep.The free breakfast was decent.  The kids loved the make-your-own waffles (in the shape of Texas!), but the scrambled eggs were cold by the time we got down there at 7:00.  Plenty of bagels and bread for toasting, along with donuts, and three varieties of cold cereal (Honeycomb, Co-Co Puffs, and something "healthy" like Just Right), along with coffee (curiously not labelled caf or decaf), juice, milk, and bananas.This hotel could use a vending machine (or little "store") selling snacks.  There are Coke machines, but if you want something to eat outside of breakfast hours, you'll have to leave the hotel (there's a Popeye's Chicken next door).This property's suites are all one-room.  Rooms 216 and 218 adjoin, if you need more than one room.We would stay here again.  Recommended.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1032,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1064,1567 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_110.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r522177769-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>281442</t>
+  </si>
+  <si>
+    <t>522177769</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Always good</t>
+  </si>
+  <si>
+    <t>Love this hotel. The manager was very helpful when I called to report a problem. She assured me that wouldn't happen again when I go back in October. The housekeeper Kyle was aeesome! He cleaned perfectly, and remembered to leave extra towels. Stay here. You won't regret it.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r488071273-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>488071273</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Its the little things</t>
+  </si>
+  <si>
+    <t>I travel for a living and spend a great deal of time in hotels, and its the little things that make all the difference... This hotel is not doing the little things well.  Hot tub with cold water...cable with no NBCSN to watch Stanley CUP even though it had 100 plus channels..'s TX hockey isn't big here...(Tell that to Dallas). refrigerator with no freezer component a staple in most comfort suites...breakfast with only the very basics and pretty greasy...with other options I would probably not stay here again.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r480239430-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
-    <t>55726</t>
-  </si>
-  <si>
-    <t>281442</t>
-  </si>
-  <si>
     <t>480239430</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r476827266-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -216,6 +255,39 @@
     <t>Okay, so, let's be honest --- you're not looking for a hotel that Richard Geer and Julia Roberts would be found. But you at least want to be treated nice, have nice ammenities and be close to things.  That's what we found here. We came here from another hotel near NASA that was a joke. The front desk operator, Kristi, she was great. Relaxed. It took a while for them to ready our room, but we expected that. She gave us ideas of things to do - but when you have teens (two boys) they did not want to go anywhere or do anything. Pool, Hot tub, fitness center, a few lounges (games, pool table) chess tables. Even waiting was in style. I am very picky. This room was clean top to bottom. The AC works REALLY well... and the WiFi? Well... I'm typing this, using it. It's very quality.This is above what I expected for the price. I'm impressed. We found our new favorite hotel for coming down to NASA, GALVESTON and surrounding Kemah.If you want to be treated right for your dollar, this is the place to be.Moderately priced - lavishly decorated.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r459154735-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>459154735</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>I will never stay here again. They charged me twice for the same room during the same week and would not reverse one of the room charges. Yes you read that right, they would NOT reverse the charge. Same week, same number of nights, charged twice.  I will never again go to this hotel chain, I will write reviews on every website possible to make sure others don't have the same experience.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r457864172-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>457864172</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Large Rooms</t>
+  </si>
+  <si>
+    <t>Just stayed here for Super Bowl weekend.  Easy to get to, and very friendly staff.  A little aging, but clean.  Rooms are LARGE.  Plenty of space to maneuver a wheelchair around.  Never ran out of hot water.  Breakfast was solid.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r422097307-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -273,6 +345,39 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r382322648-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>382322648</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Way out of the way!</t>
+  </si>
+  <si>
+    <t>When I booked from my phone app, I was needing something close to Channelview and this appeared to be. No quick, easy way to get here from I-10 west coming from Beaumont, TX. Pretty scenic at night with all the oil refineries lit up though! Air a little oiley smelling. Finally made it and everything in Deer Park was closed except for McD's, Jack in the box, and Churches chicken so I opted for McD's around 1 A.M. Girl at the front desk VERY nice and helpful. Their Wi-Fi is pretty squirrelly but she was a big help. Sorry I did not get her name. But I will stay by I-10 next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I booked from my phone app, I was needing something close to Channelview and this appeared to be. No quick, easy way to get here from I-10 west coming from Beaumont, TX. Pretty scenic at night with all the oil refineries lit up though! Air a little oiley smelling. Finally made it and everything in Deer Park was closed except for McD's, Jack in the box, and Churches chicken so I opted for McD's around 1 A.M. Girl at the front desk VERY nice and helpful. Their Wi-Fi is pretty squirrelly but she was a big help. Sorry I did not get her name. But I will stay by I-10 next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r363499603-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>363499603</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Excellent staff with nice facility</t>
+  </si>
+  <si>
+    <t>Hot tub, pool, good breakfast, big room.  We stayed here with 2 adults and 3 kids on our way to Galveston for a Caribbean cruise.  Nice hotel located central to everything you need but still secluded for peace and quite at night. Restaurants, shopping, and everything else was good as well.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r285594204-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -333,6 +438,45 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r251179410-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>251179410</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>A very well maintained property,definitely recommend</t>
+  </si>
+  <si>
+    <t>I checked in to the hotel never seeing the town or hotel ,I travel frequently and have been to some bad places and some good places.This hotel has  amazing customer service , and honestly your treated like a vip ,once I entered the hotel I was greeted with a huge smile and a very warm welcome as if I just got home from college,it was my pleasure to meet Anjois the front desk manager. This extremely nice and intelligent woman was the nicest and most helpful hotel staff member I have ever had the opportunity to meet,and is the main reason I recommend this hotel.I hope you have the pleasure to meet her and stay on the property. My room was extremely fresh and clean as well as all the linens and bathroom.I felt very comfortable taking my shoes off ,the lobby and adjoining areas ,pool,work out room,snak and bar section were clean and well maintained,the bar also had a happy hour with beer/wine and a snack .they lady serving drinks was also super nice.I definitely recommend staying at this hotel for the customer service,cleanliness,and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in to the hotel never seeing the town or hotel ,I travel frequently and have been to some bad places and some good places.This hotel has  amazing customer service , and honestly your treated like a vip ,once I entered the hotel I was greeted with a huge smile and a very warm welcome as if I just got home from college,it was my pleasure to meet Anjois the front desk manager. This extremely nice and intelligent woman was the nicest and most helpful hotel staff member I have ever had the opportunity to meet,and is the main reason I recommend this hotel.I hope you have the pleasure to meet her and stay on the property. My room was extremely fresh and clean as well as all the linens and bathroom.I felt very comfortable taking my shoes off ,the lobby and adjoining areas ,pool,work out room,snak and bar section were clean and well maintained,the bar also had a happy hour with beer/wine and a snack .they lady serving drinks was also super nice.I definitely recommend staying at this hotel for the customer service,cleanliness,and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r238742980-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>238742980</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Week long stay</t>
+  </si>
+  <si>
+    <t>My husband is in town for prolonged business. He had stayed at another much higher priced suite hotel the week before. The water at that upscale hoitel was lukewarm, so he said he was going to look for another because I was coming the next week. He saw tthe weekly rates on the marquis out front and stopped in. Angelique assisted him and he was impressed by her helpfulness. The hotel is clean and ALL of the staff works together. We had a small problem with our room and the maintenance man came right out and fixed it. Later I received a call from the front desk imforming me it had been taken care of.  I have been here a week and feel very comfortable. the cleaning woman is excellant, the breakfast attendant is very helpful as are all of the employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>My husband is in town for prolonged business. He had stayed at another much higher priced suite hotel the week before. The water at that upscale hoitel was lukewarm, so he said he was going to look for another because I was coming the next week. He saw tthe weekly rates on the marquis out front and stopped in. Angelique assisted him and he was impressed by her helpfulness. The hotel is clean and ALL of the staff works together. We had a small problem with our room and the maintenance man came right out and fixed it. Later I received a call from the front desk imforming me it had been taken care of.  I have been here a week and feel very comfortable. the cleaning woman is excellant, the breakfast attendant is very helpful as are all of the employees.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r234036886-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -414,6 +558,60 @@
     <t>We stayed at this hotel for two nights. The hotel was very well kept. Rooms were clean, beds were very comfortable, bedding smelled fresh and clean. Breakfast was adequate. Staff was friendly and helpful. Lots of places to eat nearby.This hotel was a good value.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r191263998-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>191263998</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I stayed here in December and just returned from another week long stay at this location.  It is a very comfortable, clean, well run place.  Staff is very friendly and helpful.  Breakfast is good and plentiful.  I have stayed a a couple of other Deer Park hotels but neither came close to the value that the Comfort Suites provides.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>A J, Manager at Comfort Suites Deer Park, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here in December and just returned from another week long stay at this location.  It is a very comfortable, clean, well run place.  Staff is very friendly and helpful.  Breakfast is good and plentiful.  I have stayed a a couple of other Deer Park hotels but neither came close to the value that the Comfort Suites provides.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r184640444-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>184640444</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Superb Stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this establishment many times and every time I stay the service is perfect. Continental breakfast is very nice. Coffee is flavorful and the staff is always smiling and willing to help. Nice Job!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>A J, Manager at Comfort Suites Deer Park, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this establishment many times and every time I stay the service is perfect. Continental breakfast is very nice. Coffee is flavorful and the staff is always smiling and willing to help. Nice Job!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r169019584-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -474,6 +672,48 @@
     <t>I was surprised to find that it had been nine years since I had last stayed here.  Time for an updated review!The Comfort Suites isn't a full-service hotel, but achieves everything it strives to be.  I'm going to rate it a 5 based on that, recognizing that it isn't trying to be the Ritz.The property is nicely cared for, and clean and inviting, and all the staff we dealt with were helpful and very friendly.  The property is pretty quiet, though we found that the A/C units' fans are on the loud side:  on the one hand, you had to turn up the TV to hear it, but on the other hand it kept up a 'white noise' that may have helped cover up noise from neighbors and the hall.  At any rate, we did not have problems with external noise.  Our room was clean and comfortable and the beds came with an abundance of pillows.  I felt we got a good rate.The included breakfast in the morning has a pretty wide selection, with something for most everyone including some hot foods and two flavors of make-your-own waffles that are in the shape of Texas.  The management just started a Happy Hour gathering with free wine and beer in the evenings.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r133688527-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>133688527</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Ok for business travel</t>
+  </si>
+  <si>
+    <t>The hotel is clean and not exactly new, but more new than old.  Clean rooms and friendly staff. The breakfast was sparse and not well attended. Was just in for a quick business meeting and this was close to the location I was heading to.  They do have a free reception round 5-7 PM. The beer was cold but the room was a little narrow and HOT.  The temp outside was 110 so I can't fault them too much, but overall the hotel seemed to struggle with the neat.  The area is light on dining.  There are plenty of fast food restaurants but if you want to sit down for anything , you only have a couple if choices.  We opted for Jimmy Changa's which was recommended by the staff.  It was a good pick for fun Mexican on the nicer side.  The other option is Antonio's Italian but it is BYOB but there is a decent liquor store close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The hotel is clean and not exactly new, but more new than old.  Clean rooms and friendly staff. The breakfast was sparse and not well attended. Was just in for a quick business meeting and this was close to the location I was heading to.  They do have a free reception round 5-7 PM. The beer was cold but the room was a little narrow and HOT.  The temp outside was 110 so I can't fault them too much, but overall the hotel seemed to struggle with the neat.  The area is light on dining.  There are plenty of fast food restaurants but if you want to sit down for anything , you only have a couple if choices.  We opted for Jimmy Changa's which was recommended by the staff.  It was a good pick for fun Mexican on the nicer side.  The other option is Antonio's Italian but it is BYOB but there is a decent liquor store close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r125256299-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>125256299</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice room, great value!</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights in Feb. while visiting a customer in the area. Everything was very good. The ladies at the desk were friendly and helpful- and both my business partner and I were upgraded to suites. The bed and the pillows were very comfortable. It was cool enough that I didn't need to run the AC unit so I didn't have to worry about the extra noise. The hotel had a business center although I didn't need to use it with the internet access from my room. I checked in for my return flight and had the boarding pass faxed to the front desk- the process worked well. The complimentary breakfast was one of the better ones I've had. Best of all, the rate was $89.99/night so I considered this a very good value. I highly recommend this hotel for travellers staying in this area and hope this review has been helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights in Feb. while visiting a customer in the area. Everything was very good. The ladies at the desk were friendly and helpful- and both my business partner and I were upgraded to suites. The bed and the pillows were very comfortable. It was cool enough that I didn't need to run the AC unit so I didn't have to worry about the extra noise. The hotel had a business center although I didn't need to use it with the internet access from my room. I checked in for my return flight and had the boarding pass faxed to the front desk- the process worked well. The complimentary breakfast was one of the better ones I've had. Best of all, the rate was $89.99/night so I considered this a very good value. I highly recommend this hotel for travellers staying in this area and hope this review has been helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r120547916-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -528,6 +768,45 @@
     <t>This hotel is in a convenient central location. The rooms were clean and in good condition. Everyone who worked there was very friendly and helpful. I was there on  a business trip but I would definitely go back there on vacation with my family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r85568341-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>85568341</t>
+  </si>
+  <si>
+    <t>11/01/2010</t>
+  </si>
+  <si>
+    <t>Nice Experience</t>
+  </si>
+  <si>
+    <t>I arrived late and was immediately checked in, by a very friendly front desk attendant.  I was informed of a "happy hour" where they serve free beer from 5-7 in the lobby and given a bottle of cold water.  Breakfast was typical.One should note that this is in a dry (no alcohol sales) area, the closest drinking establishment is a few miles away in La Porte.  This hotel is also in an industrial part of town and there are many refineries and chemical plants within a mile.  The wireless internet was decent as well, although it did not seem like many people were staying there so the load could have been light.Overall the hotel was quiet, clean and comfortable and I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>I arrived late and was immediately checked in, by a very friendly front desk attendant.  I was informed of a "happy hour" where they serve free beer from 5-7 in the lobby and given a bottle of cold water.  Breakfast was typical.One should note that this is in a dry (no alcohol sales) area, the closest drinking establishment is a few miles away in La Porte.  This hotel is also in an industrial part of town and there are many refineries and chemical plants within a mile.  The wireless internet was decent as well, although it did not seem like many people were staying there so the load could have been light.Overall the hotel was quiet, clean and comfortable and I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r11000352-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>11000352</t>
+  </si>
+  <si>
+    <t>11/23/2007</t>
+  </si>
+  <si>
+    <t>Room Security a BIG Issue</t>
+  </si>
+  <si>
+    <t>I returned to my room to find my husband in the shower and a housekeeper in the room.  I was somewhat shocked that when she entered the room, heard the shower she came in anyway.  I said to her, "My husband is in the shower", and she said, "that's okay."  I said that it wasn't and she needed to leave.  She kept cleaning.  I went to the front desk clerk, who then came up and asked the housekeeper to leave.  I later talked to the manager, "Dimple" on the phone.  He told me he didn't know what to say...that if it was such a problem I should check out.  I said it's Thanksgiving, where was I to go?  He responded, "The Best Western".   What a "professional" reaction!!!!!!!!I will never stay in this particular hotel again.  Not even an apology was given.MoreShow less</t>
+  </si>
+  <si>
+    <t>I returned to my room to find my husband in the shower and a housekeeper in the room.  I was somewhat shocked that when she entered the room, heard the shower she came in anyway.  I said to her, "My husband is in the shower", and she said, "that's okay."  I said that it wasn't and she needed to leave.  She kept cleaning.  I went to the front desk clerk, who then came up and asked the housekeeper to leave.  I later talked to the manager, "Dimple" on the phone.  He told me he didn't know what to say...that if it was such a problem I should check out.  I said it's Thanksgiving, where was I to go?  He responded, "The Best Western".   What a "professional" reaction!!!!!!!!I will never stay in this particular hotel again.  Not even an apology was given.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r10355039-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -583,6 +862,42 @@
   </si>
   <si>
     <t>The hotel was very nice.  The rooms were very spacious and even had extra tall ceilings.  The hotel was quiet and comfortable.  The free hot breakfast was very good.  Our only complaint was the hot tub.  It is shaped like Texas which it really cute.  However, I have NEVER EVER been to a hotel where you had to ask the desk clerk to turn on the heater in the hot tub.  She said it would only take 15 min to heat up.  Well an hour later it was lukewarm and later in the evening it didn't get any better.  The jets were powerful, but who wants a lukewarm tub?  We were very let down.  Coming from a northern climate we felt the outside temperature was quite nice and were really looking forward to relaxing in the hot tub under the stars.   We had a short stay though since the water was only lukewarm.  The pool was frigid.  If they are going to keep the pool open in the winter shouldn't it be heated?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r6509184-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>6509184</t>
+  </si>
+  <si>
+    <t>12/27/2006</t>
+  </si>
+  <si>
+    <t>Very clean and well organized</t>
+  </si>
+  <si>
+    <t>We were in Texas in March to visit friends, family.  We stayed at this property for one night.  It was the cleanest hotel I have every stayed in!  I have done a great deal of travelling over the years.  I was very impressed with the condition of this property.  The staff were very nice.  The boys liked the internet lounge.  It was too cool to swim but the pool looked very nice.  Our room was large and very clean.  We are big fans of Choice Hotels and this property definitely supports our opinion.  Great job.</t>
+  </si>
+  <si>
+    <t>April 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r6027360-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>6027360</t>
+  </si>
+  <si>
+    <t>10/28/2006</t>
+  </si>
+  <si>
+    <t>very comfortable</t>
+  </si>
+  <si>
+    <t>Just returned from 2 nights at this hotel with my husband and two teenagers 16 and 14.  We have stayed here before and as always we had a very pleasant stay.  This place is not that old so it is very clean, nice and quiet.  The rooms are spacious and beds are comfy too.  The staff is always friendly and helpful.  Breakfast is included and they have a Texas shaped waffle maker.  They also have a Texas shaped "hot tub" along with the pool outside.When in Deer Park I am coming here for sure.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d281442-r3497237-Comfort_Suites_Deer_Park-Deer_Park_Texas.html</t>
@@ -1173,7 +1488,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1181,15 +1496,17 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1234,23 +1551,25 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1274,7 +1593,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1283,37 +1602,35 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1321,7 +1638,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1358,20 +1675,24 @@
         <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1415,20 +1736,22 @@
         <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1476,13 +1799,13 @@
         <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1533,22 +1856,20 @@
         <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1559,7 +1880,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1575,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1584,45 +1905,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
-      </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1638,7 +1953,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1647,32 +1962,32 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>101</v>
       </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1683,7 +1998,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1699,7 +2014,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1708,49 +2023,39 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>108</v>
       </c>
-      <c r="L11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>111</v>
-      </c>
-      <c r="X11" t="s">
-        <v>112</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -1766,7 +2071,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1775,38 +2080,32 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -1814,14 +2113,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>120</v>
-      </c>
-      <c r="X12" t="s">
-        <v>121</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1837,7 +2132,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1846,53 +2141,35 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
-        <v>128</v>
-      </c>
-      <c r="O13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>129</v>
-      </c>
-      <c r="X13" t="s">
-        <v>130</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1908,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1917,35 +2194,31 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
       </c>
@@ -1959,7 +2232,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1975,7 +2248,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1984,31 +2257,31 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>5</v>
       </c>
@@ -2022,7 +2295,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2311,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2047,35 +2320,29 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>5</v>
       </c>
@@ -2089,7 +2356,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
@@ -2105,7 +2372,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2114,41 +2381,37 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>157</v>
-      </c>
-      <c r="O17" t="s">
-        <v>58</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2156,7 +2419,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2172,7 +2435,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2181,38 +2444,32 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2223,7 +2480,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -2239,7 +2496,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2248,31 +2505,31 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="n">
         <v>5</v>
       </c>
@@ -2283,10 +2540,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>159</v>
+      </c>
+      <c r="X19" t="s">
+        <v>160</v>
+      </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
@@ -2302,7 +2563,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2311,41 +2572,53 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" t="s">
+        <v>169</v>
+      </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -2361,7 +2634,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2370,35 +2643,53 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
         <v>177</v>
       </c>
-      <c r="J21" t="s">
+      <c r="X21" t="s">
         <v>178</v>
       </c>
-      <c r="K21" t="s">
+      <c r="Y21" t="s">
         <v>179</v>
-      </c>
-      <c r="L21" t="s">
-        <v>180</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -2414,7 +2705,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2423,47 +2714,51 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
         <v>183</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>184</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>185</v>
       </c>
-      <c r="L22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>187</v>
-      </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
         <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>186</v>
+      </c>
+      <c r="X22" t="s">
+        <v>187</v>
+      </c>
       <c r="Y22" t="s">
         <v>188</v>
       </c>
@@ -2502,23 +2797,41 @@
         <v>193</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" t="s">
+        <v>196</v>
+      </c>
       <c r="Y23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -2534,7 +2847,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2543,35 +2856,49 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
@@ -2587,7 +2914,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2596,35 +2923,1035 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s">
+        <v>254</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>255</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>276</v>
+      </c>
+      <c r="J36" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>280</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s">
+        <v>303</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>50509</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>305</v>
+      </c>
+      <c r="J41" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41" t="s">
+        <v>307</v>
+      </c>
+      <c r="L41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
